--- a/Tools/Python.xlsx
+++ b/Tools/Python.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zxz\document\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zxz\test\StudentTest\Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFBC6B7-4C25-4FE0-BAD4-4651AD79F64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC50C527-9843-427F-8C8B-DC9217A6B532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="3375" windowWidth="18900" windowHeight="11055" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2475" yWindow="2580" windowWidth="18900" windowHeight="11055" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="知识点" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>不可变类型：当该数据类型的变量的值发生了改变，对应的内存地址也发生了改变，这种数据类型是不可变数据类型</t>
   </si>
@@ -270,6 +270,18 @@
   </si>
   <si>
     <t>pip install -r requirements.txt</t>
+  </si>
+  <si>
+    <t>Django 中不等于的处理方式，使用~Q，Q是处理等于</t>
+  </si>
+  <si>
+    <t>CodeReview.objects.filter(~Q(fobjectid="Design Review"))</t>
+  </si>
+  <si>
+    <t>"@transaction.atomic"</t>
+  </si>
+  <si>
+    <t># transaction.atomic装饰器可以保证该函数中所有的数据库操作都在一个事务中。</t>
   </si>
 </sst>
 </file>
@@ -1338,10 +1350,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0E9091-C50A-4845-A6CD-80BC0B42ED9A}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1494,6 +1506,26 @@
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/Python.xlsx
+++ b/Tools/Python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zxz\test\StudentTest\Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC50C527-9843-427F-8C8B-DC9217A6B532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8801FC07-156B-4133-A5ED-1286C8EF1C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2475" yWindow="2580" windowWidth="18900" windowHeight="11055" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1352,8 +1352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0E9091-C50A-4845-A6CD-80BC0B42ED9A}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tools/Python.xlsx
+++ b/Tools/Python.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zxz\test\StudentTest\Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8801FC07-156B-4133-A5ED-1286C8EF1C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA20CF1-82E0-4C07-B72E-6D10F58E1386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2475" yWindow="2580" windowWidth="18900" windowHeight="11055" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="知识点" sheetId="1" r:id="rId1"/>
     <sheet name="venv" sheetId="2" r:id="rId2"/>
     <sheet name="django" sheetId="3" r:id="rId3"/>
+    <sheet name="TCP IP" sheetId="4" r:id="rId4"/>
+    <sheet name="pandas" sheetId="5" r:id="rId5"/>
+    <sheet name="numpy" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1352,7 +1355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0E9091-C50A-4845-A6CD-80BC0B42ED9A}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
@@ -1535,4 +1538,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44759AE0-1044-41CF-B6FD-8EFE3E4AD46F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23320C67-900D-4D18-BAF5-2DA61B72CA81}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E98753D-C2FC-4FB3-987A-8CC0C18F9AEB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tools/Python.xlsx
+++ b/Tools/Python.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zxz\test\StudentTest\Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA20CF1-82E0-4C07-B72E-6D10F58E1386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD648D1-6720-47B1-8165-A26562B13176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2475" yWindow="2580" windowWidth="18900" windowHeight="11055" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="知识点" sheetId="1" r:id="rId1"/>
@@ -1085,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C227"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1305,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15AD29F4-90D0-41BD-8538-B7C779B5A1F0}">
   <dimension ref="A2:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,7 +1355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0E9091-C50A-4845-A6CD-80BC0B42ED9A}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
@@ -1568,7 +1568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E98753D-C2FC-4FB3-987A-8CC0C18F9AEB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/Tools/Python.xlsx
+++ b/Tools/Python.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zxz\test\StudentTest\Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD648D1-6720-47B1-8165-A26562B13176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1DE754-F568-401D-858C-B368CBD1E176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2475" yWindow="2580" windowWidth="18900" windowHeight="11055" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13410" yWindow="3870" windowWidth="18900" windowHeight="11055" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="知识点" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>不可变类型：当该数据类型的变量的值发生了改变，对应的内存地址也发生了改变，这种数据类型是不可变数据类型</t>
   </si>
@@ -285,13 +285,52 @@
   </si>
   <si>
     <t># transaction.atomic装饰器可以保证该函数中所有的数据库操作都在一个事务中。</t>
+  </si>
+  <si>
+    <t>pip install pandas</t>
+  </si>
+  <si>
+    <t>安装</t>
+  </si>
+  <si>
+    <t>import pandas as pd</t>
+  </si>
+  <si>
+    <t>导入</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
+    <t>数据结构</t>
+  </si>
+  <si>
+    <t>类似表中的一个列</t>
+  </si>
+  <si>
+    <t>pandas.Series(data, index, dtype, name, copy)</t>
+  </si>
+  <si>
+    <t>data:一组数据</t>
+  </si>
+  <si>
+    <t>index:索引表前  如果不指定，从0开始</t>
+  </si>
+  <si>
+    <t>dtype:数据类型</t>
+  </si>
+  <si>
+    <t>name:设置名称</t>
+  </si>
+  <si>
+    <t>copy: 复制数据，默认为false</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,6 +360,12 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -336,7 +381,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -344,18 +389,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1305,7 +1368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15AD29F4-90D0-41BD-8538-B7C779B5A1F0}">
   <dimension ref="A2:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -1554,13 +1617,76 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23320C67-900D-4D18-BAF5-2DA61B72CA81}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
